--- a/backend/src/tmp/EstimacionCosto.xlsx
+++ b/backend/src/tmp/EstimacionCosto.xlsx
@@ -4,52 +4,73 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Caja" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Estimacion de costos" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Ingresos(*)</t>
-  </si>
-  <si>
-    <t>Prestamo</t>
-  </si>
-  <si>
-    <t>Donaciones</t>
-  </si>
-  <si>
-    <t>Patrocinador</t>
-  </si>
-  <si>
-    <t>Pago Cliente</t>
-  </si>
-  <si>
-    <t>Total Ingresos</t>
-  </si>
-  <si>
-    <t>Egresos(*)</t>
-  </si>
-  <si>
-    <t>Egreso 1</t>
-  </si>
-  <si>
-    <t>Egreso 2</t>
-  </si>
-  <si>
-    <t>Egreso 3</t>
-  </si>
-  <si>
-    <t>Egreso 4</t>
-  </si>
-  <si>
-    <t>Total Egresos</t>
-  </si>
-  <si>
-    <t>Acumulado</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>Partida</t>
+  </si>
+  <si>
+    <t>Cantidad de recurso</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t>Tiempo requerido</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Estimacion 1</t>
+  </si>
+  <si>
+    <t>Estimacion 2</t>
+  </si>
+  <si>
+    <t>Estimacion 3</t>
+  </si>
+  <si>
+    <t>Estimacion 4</t>
+  </si>
+  <si>
+    <t>Estimacion 5</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Reserva de contingencia</t>
+  </si>
+  <si>
+    <t>Linea Base de Costos</t>
+  </si>
+  <si>
+    <t>Reserva de gestion</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+  <si>
+    <t>Total con ganancia</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -447,183 +468,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="4" width="10" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>69133</v>
+        <v>10000</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>100056</v>
+        <v>10000</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>80801</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>59980</v>
+        <v>20000</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>309970</v>
+        <v>20000</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>20000</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>30000</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>40000</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>60000</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E8" s="1">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>160000</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>NaN</v>
+      <c r="E10" s="1">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>180100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1">
+        <v>180100</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/EstimacionCosto.xlsx
+++ b/backend/src/tmp/EstimacionCosto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Partida</t>
   </si>
@@ -28,19 +28,13 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Estimacion 1</t>
-  </si>
-  <si>
-    <t>Estimacion 2</t>
-  </si>
-  <si>
-    <t>Estimacion 3</t>
-  </si>
-  <si>
-    <t>Estimacion 4</t>
-  </si>
-  <si>
-    <t>Estimacion 5</t>
+    <t>Igenieros</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>xd</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -468,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -500,16 +494,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -520,13 +514,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>20000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,78 +531,68 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>20000</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" s="1">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
+      <c r="E7" s="1">
+        <v>1500</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>180000</v>
+        <v>47300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>180000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +608,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,23 +619,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>180100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1">
-        <v>180100</v>
+        <v>59800.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/EstimacionCosto.xlsx
+++ b/backend/src/tmp/EstimacionCosto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Partida</t>
   </si>
@@ -26,51 +26,6 @@
   </si>
   <si>
     <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Estimacion 1</t>
-  </si>
-  <si>
-    <t>Estimacion 2</t>
-  </si>
-  <si>
-    <t>Estimacion 3</t>
-  </si>
-  <si>
-    <t>Estimacion 4</t>
-  </si>
-  <si>
-    <t>Estimacion 5</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Reserva de contingencia</t>
-  </si>
-  <si>
-    <t>Linea Base de Costos</t>
-  </si>
-  <si>
-    <t>Reserva de gestion</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>Presupuesto</t>
-  </si>
-  <si>
-    <t>Ganancia</t>
-  </si>
-  <si>
-    <t>Total con ganancia</t>
-  </si>
-  <si>
-    <t>IGV</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -468,17 +423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,162 +450,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>10000</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>20000</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1">
-        <v>180100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1">
-        <v>180100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend/src/tmp/EstimacionCosto.xlsx
+++ b/backend/src/tmp/EstimacionCosto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Partida</t>
   </si>
@@ -28,19 +28,13 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Estimacion 1</t>
-  </si>
-  <si>
-    <t>Estimacion 2</t>
-  </si>
-  <si>
-    <t>Estimacion 3</t>
-  </si>
-  <si>
-    <t>Estimacion 4</t>
-  </si>
-  <si>
-    <t>Estimacion 5</t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -468,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -500,16 +494,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>17904</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -517,16 +511,16 @@
         <v>6</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>20000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -534,81 +528,71 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>10000</v>
+        <v>1400</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>20000</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E6" s="1">
+        <v>30104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>20000</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>180000</v>
+        <v>30104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1">
-        <v>180000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="1">
-        <v>100</v>
+        <v>42604</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +608,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,23 +619,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="1">
-        <v>180100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1">
-        <v>180100</v>
+        <v>42604.15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/EstimacionCosto.xlsx
+++ b/backend/src/tmp/EstimacionCosto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Partida</t>
   </si>
@@ -28,13 +28,16 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>xd</t>
-  </si>
-  <si>
-    <t>Hola</t>
+    <t>Licencia Excel</t>
+  </si>
+  <si>
+    <t>Lista Negra</t>
+  </si>
+  <si>
+    <t>Ingeniero Informático</t>
+  </si>
+  <si>
+    <t>Licencia Bizagui</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
@@ -494,16 +497,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>17904</v>
+        <v>22380</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -511,16 +514,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>17904</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -531,30 +534,39 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
-        <v>30104</v>
-      </c>
-    </row>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>53403</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -562,64 +574,72 @@
         <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>30104</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="E9" s="1">
+        <v>54403</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1">
-        <v>12500</v>
+      <c r="F10">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>0.05</v>
+      <c r="E11" s="1">
+        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1">
-        <v>42604</v>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>0.15</v>
+      <c r="E13" s="1">
+        <v>104403</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1">
-        <v>42604.15</v>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1">
+        <v>104403.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/tmp/EstimacionCosto.xlsx
+++ b/backend/src/tmp/EstimacionCosto.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Partida</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Reserva de gestion</t>
   </si>
   <si>
-    <t>PV</t>
+    <t>5%</t>
   </si>
   <si>
     <t>Presupuesto</t>
@@ -61,10 +61,16 @@
     <t>Ganancia</t>
   </si>
   <si>
+    <t>10%</t>
+  </si>
+  <si>
     <t>Total con ganancia</t>
   </si>
   <si>
     <t>IGV</t>
+  </si>
+  <si>
+    <t>4%</t>
   </si>
   <si>
     <t>Total</t>
@@ -506,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>22380</v>
+        <v>22260</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -523,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>17904</v>
+        <v>17808</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
@@ -566,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>53403</v>
+        <v>53181</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -582,18 +588,18 @@
         <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>54403</v>
+        <v>54181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>2709.05</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
-      </c>
-      <c r="F10">
-        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -608,38 +614,38 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
-        <v>0.1</v>
+      <c r="E12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>104403</v>
+        <v>104181</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0.04</v>
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4167.24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
-        <v>104403.04</v>
+        <v>104181.04</v>
       </c>
     </row>
   </sheetData>
